--- a/xlsx/信仰_intext.xlsx
+++ b/xlsx/信仰_intext.xlsx
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%94%9F%E8%A7%80</t>
   </si>
   <si>
-    <t>人生觀</t>
+    <t>人生观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80</t>
   </si>
   <si>
-    <t>價值觀</t>
+    <t>价值观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A7%80</t>
   </si>
   <si>
-    <t>世界觀</t>
+    <t>世界观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AF%8D</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1</t>
   </si>
   <si>
-    <t>傳統</t>
+    <t>传统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/信仰_intext.xlsx
+++ b/xlsx/信仰_intext.xlsx
@@ -29,7 +29,7 @@
     <t>神</t>
   </si>
   <si>
-    <t>政策_政策_政治_信仰</t>
+    <t>体育运动_体育运动_规则_信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
